--- a/biology/Botanique/Jardin_remarquable/Jardin_remarquable.xlsx
+++ b/biology/Botanique/Jardin_remarquable/Jardin_remarquable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jardin remarquable est un label qui a été créé en 2004 par le ministère de la Culture français avec le concours du Conseil national des parcs et jardins[1]. Au 8 janvier 2019, il existait 433 jardins remarquables en France métropolitaine et aux Antilles[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jardin remarquable est un label qui a été créé en 2004 par le ministère de la Culture français avec le concours du Conseil national des parcs et jardins. Au 8 janvier 2019, il existait 433 jardins remarquables en France métropolitaine et aux Antilles.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Le label</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vise à reconnaître et valoriser des parcs et jardins ouverts au public et bien entretenus[3]. Ce label dépasse le cadre des jardins anciens, protégés ou non au titre des monuments historiques, pour inclure le champ des jardins de création récente.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vise à reconnaître et valoriser des parcs et jardins ouverts au public et bien entretenus. Ce label dépasse le cadre des jardins anciens, protégés ou non au titre des monuments historiques, pour inclure le champ des jardins de création récente.
 Ce label d’État, attribué pour cinq ans, est renouvelable et révisable. Les critères pris en compte pour l’attribution sont au nombre de six :
 la composition ;
 l’intégration dans le site et la qualité des abords ;
@@ -528,7 +542,7 @@
 possibilité d’obtenir un agrément fiscal ;
 appui du Conseil national des parcs et jardins, du Comité des parcs et jardins de France et de l’association régionale.
 Le label engage en contrepartie les propriétaires à assurer un entretien régulier de leur jardin, à ouvrir au public au moins 50 jours dans l’année, à participer à une opération nationale les Rendez-vous aux jardins ou aux Journées européennes du patrimoine, à mettre une information à disposition du public, à apposer la plaque reprenant le logotype du label.
-La liste des jardins labellisés, actualisée chaque année, est consultable sur le site du Comité des parcs et jardins de France[5].
+La liste des jardins labellisés, actualisée chaque année, est consultable sur le site du Comité des parcs et jardins de France.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Village-jardin</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2013, le label a été attribué pour la première fois à l’ensemble d'une commune française, en reconnaissance des efforts d’aménagement paysager du centre-bourg de Chédigny (Indre-et-Loire), pour une durée de cinq ans renouvelable[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, le label a été attribué pour la première fois à l’ensemble d'une commune française, en reconnaissance des efforts d’aménagement paysager du centre-bourg de Chédigny (Indre-et-Loire), pour une durée de cinq ans renouvelable.
 </t>
         </is>
       </c>
